--- a/calculation.xlsx
+++ b/calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\eagle\projects\Pi_Interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BAB63E-348A-4430-A0FA-471C1F11C36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C774CB6-E7B9-4D1A-85CE-1A81FDBB7F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{923AA141-4759-4248-8827-CC87707017B5}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,10 +709,12 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>0.08</v>
+      </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -759,7 +761,7 @@
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
         <f>SUM(D2:D19)</f>
-        <v>6.4806000000000008</v>
+        <v>6.6406000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/calculation.xlsx
+++ b/calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\eagle\projects\Pi_Interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C774CB6-E7B9-4D1A-85CE-1A81FDBB7F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED97AD28-18CD-4DE4-9798-36435883FE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{923AA141-4759-4248-8827-CC87707017B5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Part</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Zener diode 5.1V</t>
+  </si>
+  <si>
+    <t>BZT52C3V6</t>
+  </si>
+  <si>
+    <t>C173412</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,11 +716,17 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <v>0.08</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,7 +773,7 @@
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
         <f>SUM(D2:D19)</f>
-        <v>6.6406000000000009</v>
+        <v>6.5118000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/calculation.xlsx
+++ b/calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\eagle\projects\Pi_Interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED97AD28-18CD-4DE4-9798-36435883FE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FD25A0-AFE7-4F29-9EB2-9CFFFC2DB05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{923AA141-4759-4248-8827-CC87707017B5}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{923AA141-4759-4248-8827-CC87707017B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Part</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>C173412</t>
+  </si>
+  <si>
+    <t>LTV-247</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +554,9 @@
         <f t="shared" ref="D3:D19" si="0">C3*A3</f>
         <v>0.57399999999999995</v>
       </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>

--- a/calculation.xlsx
+++ b/calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\eagle\projects\Pi_Interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FD25A0-AFE7-4F29-9EB2-9CFFFC2DB05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9A61F6-E23C-4DE0-BFB4-833AC9A048C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{923AA141-4759-4248-8827-CC87707017B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{923AA141-4759-4248-8827-CC87707017B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Part</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Optocoupler</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
     <t>EEProm</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
     <t>FET</t>
   </si>
   <si>
-    <t>BSS138</t>
-  </si>
-  <si>
-    <t>C24553</t>
-  </si>
-  <si>
     <t>LCSC PN</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>AD Converter 1</t>
   </si>
   <si>
-    <t>Resistors</t>
-  </si>
-  <si>
     <t>MCP3021A0T-E/OT  (Farnell 2851663)</t>
   </si>
   <si>
@@ -121,6 +109,141 @@
   </si>
   <si>
     <t>LTV-247</t>
+  </si>
+  <si>
+    <t>C221880</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C81193 </t>
+  </si>
+  <si>
+    <t>BSS138 / SM1402NSSC</t>
+  </si>
+  <si>
+    <t>C207581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC5050RGBF08-3CJH-P35C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C784539 </t>
+  </si>
+  <si>
+    <t>Resistor net 330R</t>
+  </si>
+  <si>
+    <t>Resistor net 10k</t>
+  </si>
+  <si>
+    <t>Resistor net 560R</t>
+  </si>
+  <si>
+    <t>C107374</t>
+  </si>
+  <si>
+    <t>YC164-JR-0710KL</t>
+  </si>
+  <si>
+    <t>YC164-FR-07560RL</t>
+  </si>
+  <si>
+    <t>C728910</t>
+  </si>
+  <si>
+    <t>C136828</t>
+  </si>
+  <si>
+    <t>YC164-JR-07330RL</t>
+  </si>
+  <si>
+    <t>Resistor 100R 0603</t>
+  </si>
+  <si>
+    <t>Cap 100nf 0603</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x\</t>
+  </si>
+  <si>
+    <t>Resistor 10k 0603</t>
+  </si>
+  <si>
+    <t>Resistor 150R 0603</t>
+  </si>
+  <si>
+    <t>Resistor 330R 0603</t>
+  </si>
+  <si>
+    <t>Resistor 3k9 0603</t>
+  </si>
+  <si>
+    <t>Resistor 4k99 0603</t>
+  </si>
+  <si>
+    <t>40Pin Connector (8mm high)</t>
+  </si>
+  <si>
+    <t>MCP3021A0T</t>
+  </si>
+  <si>
+    <t>MCP3021A1T</t>
+  </si>
+  <si>
+    <t>RC0603JR-0710KL</t>
+  </si>
+  <si>
+    <t>C99198</t>
+  </si>
+  <si>
+    <t>RC0603JR-07330RL</t>
+  </si>
+  <si>
+    <t>C105879</t>
+  </si>
+  <si>
+    <t>RC0603JR-07100RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-07150RL</t>
+  </si>
+  <si>
+    <t>C110091</t>
+  </si>
+  <si>
+    <t>RC0603FR-073K9L</t>
+  </si>
+  <si>
+    <t>C114616</t>
+  </si>
+  <si>
+    <t>C126805</t>
+  </si>
+  <si>
+    <t>RC0603FR-074K99L</t>
+  </si>
+  <si>
+    <t>C114621</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>C14663</t>
+  </si>
+  <si>
+    <t>Farnell PN</t>
+  </si>
+  <si>
+    <t>22850220ANG1SYA02</t>
+  </si>
+  <si>
+    <t>C429949</t>
   </si>
 </sst>
 </file>
@@ -154,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,12 +285,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -175,6 +307,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -490,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1014BE58-244A-4A2C-B1A9-9B2818848572}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +639,7 @@
     <col min="5" max="5" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -519,10 +656,13 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -539,8 +679,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -551,22 +694,25 @@
         <v>0.28699999999999998</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D19" si="0">C3*A3</f>
+        <f t="shared" ref="D3:D12" si="0">C3*A3</f>
         <v>0.57399999999999995</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -576,210 +722,466 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>0.03</v>
+        <v>1.35</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>1.35</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>1.35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>1.1200000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>0.21</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0.21</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
-        <v>0.12</v>
+        <v>2.41E-2</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>4.4200000000000003E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.1326</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
-        <v>0.03</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:D14" si="1">C13*A13</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+        <f>C15*A15</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
+        <f t="shared" ref="D16:D21" si="2">C16*A16</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1E-3</v>
+      </c>
       <c r="D17" s="1">
-        <f>C17*A17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.4E-3</v>
+      </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="2">
-        <f>SUM(D2:D19)</f>
-        <v>6.5118000000000009</v>
+        <f t="shared" si="2"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.1578</v>
+      </c>
+      <c r="D22" s="1">
+        <f>C22*A22</f>
+        <v>0.1578</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="D23" s="1">
+        <f>C23*A23</f>
+        <v>1.33</v>
+      </c>
+      <c r="H23">
+        <v>2851663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D24" s="5">
+        <f>C24*A24</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24">
+        <v>3102768</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <f>SUM(D2:D24)</f>
+        <v>7.3004000000000016</v>
       </c>
     </row>
   </sheetData>
